--- a/奨学金返金書類/（１）H30様式1-1申請書_本番_概要直し.xlsx
+++ b/奨学金返金書類/（１）H30様式1-1申請書_本番_概要直し.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nozomu/Documents/yakisaba/奨学金返金書類/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\奨学金返金書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FEFB6C-9C8D-C844-8525-D7DE0F5D0842}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB96645D-E8BD-44EE-AAFC-CF5C1D3FD546}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24840" windowHeight="15540" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="24840" windowHeight="15540" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申請書" sheetId="1" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2393,6 +2393,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2402,6 +2411,276 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2422,285 +2701,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3167,77 +3167,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29:AD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="36" width="3.1640625" style="1"/>
-    <col min="37" max="37" width="83.1640625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="36" width="3.125" style="1"/>
+    <col min="37" max="37" width="83.125" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75" customHeight="1">
+    <row r="1" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D1" s="30"/>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
     </row>
-    <row r="2" spans="1:37" ht="12.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:37" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D2" s="31"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
       <c r="Z2" s="31"/>
-      <c r="AA2" s="71" t="s">
+      <c r="AA2" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-    </row>
-    <row r="3" spans="1:37" ht="16.5" customHeight="1">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+    </row>
+    <row r="3" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3261,24 +3261,24 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="94" t="s">
+      <c r="X3" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="95"/>
-    </row>
-    <row r="4" spans="1:37" ht="16.5" customHeight="1">
-      <c r="A4" s="120" t="s">
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="151"/>
+    </row>
+    <row r="4" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -3305,17 +3305,17 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="6"/>
     </row>
-    <row r="5" spans="1:37" ht="16.5" customHeight="1">
-      <c r="A5" s="120" t="s">
+    <row r="5" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -3339,7 +3339,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="9" customHeight="1">
+    <row r="6" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3371,41 +3371,41 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="6"/>
     </row>
-    <row r="7" spans="1:37" ht="50.25" customHeight="1">
-      <c r="A7" s="114" t="s">
+    <row r="7" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="116"/>
-    </row>
-    <row r="8" spans="1:37" ht="10.5" customHeight="1">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="118"/>
+      <c r="AA7" s="118"/>
+      <c r="AB7" s="118"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="119"/>
+    </row>
+    <row r="8" spans="1:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="38"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -3437,7 +3437,7 @@
       <c r="AC8" s="35"/>
       <c r="AD8" s="36"/>
     </row>
-    <row r="9" spans="1:37" ht="13.5" customHeight="1">
+    <row r="9" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -3469,7 +3469,7 @@
       <c r="AC9" s="40"/>
       <c r="AD9" s="42"/>
     </row>
-    <row r="10" spans="1:37" ht="21" customHeight="1">
+    <row r="10" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -3501,7 +3501,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="6"/>
     </row>
-    <row r="11" spans="1:37" ht="6" customHeight="1" thickBot="1">
+    <row r="11" spans="1:37" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3533,131 +3533,131 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:37" ht="35" customHeight="1">
-      <c r="A12" s="122" t="s">
+    <row r="12" spans="1:37" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="110" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="111"/>
-    </row>
-    <row r="13" spans="1:37" ht="35" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="114"/>
+    </row>
+    <row r="13" spans="1:37" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101"/>
       <c r="O13" s="46"/>
-      <c r="P13" s="96" t="s">
+      <c r="P13" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
       <c r="W13" s="46"/>
-      <c r="X13" s="96" t="s">
+      <c r="X13" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="113"/>
-    </row>
-    <row r="14" spans="1:37" ht="35" customHeight="1">
-      <c r="A14" s="88" t="s">
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="116"/>
+    </row>
+    <row r="14" spans="1:37" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="107" t="s">
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="117" t="s">
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="104" t="s">
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="106"/>
-    </row>
-    <row r="15" spans="1:37" ht="35" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="109"/>
+    </row>
+    <row r="15" spans="1:37" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="13">
         <v>6</v>
       </c>
@@ -3691,100 +3691,100 @@
       <c r="Q15" s="18">
         <v>7</v>
       </c>
-      <c r="R15" s="117" t="s">
+      <c r="R15" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="138" t="s">
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136" t="s">
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="137"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="57"/>
       <c r="AK15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="23" customHeight="1">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:37" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="147" t="s">
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="149"/>
-    </row>
-    <row r="17" spans="1:37" ht="23" customHeight="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="141" t="s">
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="76"/>
+    </row>
+    <row r="17" spans="1:37" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
-      <c r="U17" s="142"/>
-      <c r="V17" s="142"/>
-      <c r="W17" s="142"/>
-      <c r="X17" s="142"/>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="142"/>
-      <c r="AA17" s="142"/>
-      <c r="AB17" s="142"/>
-      <c r="AC17" s="142"/>
-      <c r="AD17" s="143"/>
-    </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1">
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="68"/>
+    </row>
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -3819,7 +3819,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="21" customHeight="1" thickBot="1">
+    <row r="19" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
@@ -3827,50 +3827,50 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="139" t="s">
+    <row r="20" spans="1:37" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="83" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="85"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="142"/>
+      <c r="Z20" s="142"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="142"/>
+      <c r="AC20" s="142"/>
+      <c r="AD20" s="143"/>
       <c r="AK20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A21" s="150" t="s">
+    <row r="21" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="151"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="53" t="s">
         <v>87</v>
       </c>
@@ -3905,9 +3905,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A22" s="152"/>
-      <c r="B22" s="153"/>
+    <row r="22" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="50" t="s">
         <v>75</v>
       </c>
@@ -3942,9 +3942,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A23" s="152"/>
-      <c r="B23" s="153"/>
+    <row r="23" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="50" t="s">
         <v>86</v>
       </c>
@@ -3979,406 +3979,406 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A24" s="152"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="56" t="s">
+    <row r="24" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="87"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="65"/>
       <c r="AK24" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A25" s="152"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="56" t="s">
+    <row r="25" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="87"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="65"/>
       <c r="AK25" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A26" s="152"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="56" t="s">
+    <row r="26" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="87"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="65"/>
       <c r="AK26" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A27" s="152"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="56" t="s">
+    <row r="27" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="87"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="65"/>
       <c r="AK27" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="56" t="s">
+    <row r="28" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="87"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="65"/>
       <c r="AK28" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A29" s="154"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="91" t="s">
+    <row r="29" spans="1:37" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="93"/>
-    </row>
-    <row r="30" spans="1:37" ht="7.5" customHeight="1">
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+      <c r="N29" s="148"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="148"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="149"/>
+    </row>
+    <row r="30" spans="1:37" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="22.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:37" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="52" customHeight="1">
-      <c r="A32" s="146" t="s">
+    <row r="32" spans="1:37" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="129"/>
-      <c r="C32" s="69" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="128" t="s">
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="L32" s="129"/>
-      <c r="M32" s="81" t="s">
+      <c r="L32" s="72"/>
+      <c r="M32" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="128" t="s">
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="V32" s="129"/>
-      <c r="W32" s="81" t="s">
+      <c r="V32" s="72"/>
+      <c r="W32" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="98"/>
-    </row>
-    <row r="33" spans="1:30" ht="52" customHeight="1">
-      <c r="A33" s="130" t="s">
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="123"/>
+    </row>
+    <row r="33" spans="1:30" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="144" t="s">
+      <c r="B33" s="93"/>
+      <c r="C33" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="132" t="s">
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="131"/>
-      <c r="M33" s="74" t="s">
+      <c r="L33" s="93"/>
+      <c r="M33" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="132" t="s">
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="V33" s="131"/>
-      <c r="W33" s="74" t="s">
+      <c r="V33" s="93"/>
+      <c r="W33" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="75"/>
-    </row>
-    <row r="34" spans="1:30" ht="52" customHeight="1" thickBot="1">
-      <c r="A34" s="130" t="s">
+      <c r="X33" s="120"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="120"/>
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="135"/>
+    </row>
+    <row r="34" spans="1:30" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="131"/>
-      <c r="C34" s="74" t="s">
+      <c r="B34" s="93"/>
+      <c r="C34" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="99" t="s">
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101" t="s">
+      <c r="L34" s="87"/>
+      <c r="M34" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="99" t="s">
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="V34" s="100"/>
-      <c r="W34" s="101" t="s">
+      <c r="V34" s="87"/>
+      <c r="W34" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101"/>
-      <c r="AD34" s="103"/>
-    </row>
-    <row r="35" spans="1:30" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A35" s="156" t="s">
+      <c r="X34" s="125"/>
+      <c r="Y34" s="125"/>
+      <c r="Z34" s="125"/>
+      <c r="AA34" s="125"/>
+      <c r="AB34" s="125"/>
+      <c r="AC34" s="125"/>
+      <c r="AD34" s="127"/>
+    </row>
+    <row r="35" spans="1:30" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="157" t="s">
+      <c r="B35" s="87"/>
+      <c r="C35" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="67" t="s">
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="68"/>
-    </row>
-    <row r="36" spans="1:30" ht="9" customHeight="1">
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="128"/>
+      <c r="AD35" s="129"/>
+    </row>
+    <row r="36" spans="1:30" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
@@ -4409,7 +4409,7 @@
       <c r="AC36" s="44"/>
       <c r="AD36" s="44"/>
     </row>
-    <row r="37" spans="1:30" ht="16.5" customHeight="1">
+    <row r="37" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>18</v>
       </c>
@@ -4420,816 +4420,816 @@
       <c r="AC37" s="32"/>
       <c r="AD37" s="32"/>
     </row>
-    <row r="38" spans="1:30" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="39" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A39" s="133" t="s">
+    <row r="38" spans="1:30" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="134"/>
-      <c r="X39" s="134"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
-      <c r="AC39" s="134"/>
-      <c r="AD39" s="135"/>
-    </row>
-    <row r="40" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A40" s="56" t="s">
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="96"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="96"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="96"/>
+      <c r="AB39" s="96"/>
+      <c r="AC39" s="96"/>
+      <c r="AD39" s="97"/>
+    </row>
+    <row r="40" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="58"/>
-    </row>
-    <row r="41" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="57"/>
-      <c r="AB41" s="57"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="58"/>
-    </row>
-    <row r="42" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A42" s="56" t="s">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="61"/>
+    </row>
+    <row r="41" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="61"/>
+    </row>
+    <row r="42" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
-      <c r="X42" s="57"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="58"/>
-    </row>
-    <row r="43" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A43" s="56" t="s">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="61"/>
+    </row>
+    <row r="43" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="57"/>
-      <c r="AB43" s="57"/>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="58"/>
-    </row>
-    <row r="44" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="58"/>
-    </row>
-    <row r="45" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="57"/>
-      <c r="AC45" s="57"/>
-      <c r="AD45" s="58"/>
-    </row>
-    <row r="46" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
-      <c r="AC46" s="57"/>
-      <c r="AD46" s="58"/>
-    </row>
-    <row r="47" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
-      <c r="Y47" s="57"/>
-      <c r="Z47" s="57"/>
-      <c r="AA47" s="57"/>
-      <c r="AB47" s="57"/>
-      <c r="AC47" s="57"/>
-      <c r="AD47" s="58"/>
-    </row>
-    <row r="48" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="57"/>
-      <c r="AC48" s="57"/>
-      <c r="AD48" s="58"/>
-    </row>
-    <row r="49" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="57"/>
-      <c r="AC49" s="57"/>
-      <c r="AD49" s="58"/>
-    </row>
-    <row r="50" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="57"/>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="57"/>
-      <c r="AC50" s="57"/>
-      <c r="AD50" s="58"/>
-    </row>
-    <row r="51" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="57"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="58"/>
-    </row>
-    <row r="52" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="58"/>
-    </row>
-    <row r="53" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="57"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="57"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-      <c r="AC53" s="57"/>
-      <c r="AD53" s="58"/>
-    </row>
-    <row r="54" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="57"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-      <c r="AC54" s="57"/>
-      <c r="AD54" s="58"/>
-    </row>
-    <row r="55" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="57"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="57"/>
-      <c r="T55" s="57"/>
-      <c r="U55" s="57"/>
-      <c r="V55" s="57"/>
-      <c r="W55" s="57"/>
-      <c r="X55" s="57"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="57"/>
-      <c r="AA55" s="57"/>
-      <c r="AB55" s="57"/>
-      <c r="AC55" s="57"/>
-      <c r="AD55" s="58"/>
-    </row>
-    <row r="56" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="57"/>
-      <c r="T56" s="57"/>
-      <c r="U56" s="57"/>
-      <c r="V56" s="57"/>
-      <c r="W56" s="57"/>
-      <c r="X56" s="57"/>
-      <c r="Y56" s="57"/>
-      <c r="Z56" s="57"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="57"/>
-      <c r="AC56" s="57"/>
-      <c r="AD56" s="58"/>
-    </row>
-    <row r="57" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
-      <c r="X57" s="57"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="57"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="57"/>
-      <c r="AD57" s="58"/>
-    </row>
-    <row r="58" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="57"/>
-      <c r="AA58" s="57"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="57"/>
-      <c r="AD58" s="58"/>
-    </row>
-    <row r="59" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A59" s="56"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="57"/>
-      <c r="AD59" s="58"/>
-    </row>
-    <row r="60" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="58"/>
-    </row>
-    <row r="61" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A61" s="56"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="57"/>
-      <c r="AA61" s="57"/>
-      <c r="AB61" s="57"/>
-      <c r="AC61" s="57"/>
-      <c r="AD61" s="58"/>
-    </row>
-    <row r="62" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A62" s="56"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
-      <c r="R62" s="57"/>
-      <c r="S62" s="57"/>
-      <c r="T62" s="57"/>
-      <c r="U62" s="57"/>
-      <c r="V62" s="57"/>
-      <c r="W62" s="57"/>
-      <c r="X62" s="57"/>
-      <c r="Y62" s="57"/>
-      <c r="Z62" s="57"/>
-      <c r="AA62" s="57"/>
-      <c r="AB62" s="57"/>
-      <c r="AC62" s="57"/>
-      <c r="AD62" s="58"/>
-    </row>
-    <row r="63" spans="1:30" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A63" s="60"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="61"/>
-      <c r="AA63" s="61"/>
-      <c r="AB63" s="61"/>
-      <c r="AC63" s="61"/>
-      <c r="AD63" s="62"/>
-    </row>
-    <row r="64" spans="1:30" ht="12" customHeight="1">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="61"/>
+    </row>
+    <row r="44" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="61"/>
+    </row>
+    <row r="45" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="61"/>
+    </row>
+    <row r="46" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="61"/>
+    </row>
+    <row r="47" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="60"/>
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="60"/>
+      <c r="AA47" s="60"/>
+      <c r="AB47" s="60"/>
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="61"/>
+    </row>
+    <row r="48" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
+      <c r="AA48" s="60"/>
+      <c r="AB48" s="60"/>
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="61"/>
+    </row>
+    <row r="49" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="61"/>
+    </row>
+    <row r="50" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="61"/>
+    </row>
+    <row r="51" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="60"/>
+      <c r="AA51" s="60"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="61"/>
+    </row>
+    <row r="52" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="60"/>
+      <c r="AC52" s="60"/>
+      <c r="AD52" s="61"/>
+    </row>
+    <row r="53" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
+      <c r="AB53" s="60"/>
+      <c r="AC53" s="60"/>
+      <c r="AD53" s="61"/>
+    </row>
+    <row r="54" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="60"/>
+      <c r="AA54" s="60"/>
+      <c r="AB54" s="60"/>
+      <c r="AC54" s="60"/>
+      <c r="AD54" s="61"/>
+    </row>
+    <row r="55" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="60"/>
+      <c r="AC55" s="60"/>
+      <c r="AD55" s="61"/>
+    </row>
+    <row r="56" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="60"/>
+      <c r="AD56" s="61"/>
+    </row>
+    <row r="57" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="60"/>
+      <c r="AA57" s="60"/>
+      <c r="AB57" s="60"/>
+      <c r="AC57" s="60"/>
+      <c r="AD57" s="61"/>
+    </row>
+    <row r="58" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="59"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="60"/>
+      <c r="Y58" s="60"/>
+      <c r="Z58" s="60"/>
+      <c r="AA58" s="60"/>
+      <c r="AB58" s="60"/>
+      <c r="AC58" s="60"/>
+      <c r="AD58" s="61"/>
+    </row>
+    <row r="59" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="59"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="60"/>
+      <c r="AB59" s="60"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="61"/>
+    </row>
+    <row r="60" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="60"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="61"/>
+    </row>
+    <row r="61" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="60"/>
+      <c r="AA61" s="60"/>
+      <c r="AB61" s="60"/>
+      <c r="AC61" s="60"/>
+      <c r="AD61" s="61"/>
+    </row>
+    <row r="62" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="59"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="60"/>
+      <c r="Y62" s="60"/>
+      <c r="Z62" s="60"/>
+      <c r="AA62" s="60"/>
+      <c r="AB62" s="60"/>
+      <c r="AC62" s="60"/>
+      <c r="AD62" s="61"/>
+    </row>
+    <row r="63" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="153"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="154"/>
+      <c r="P63" s="154"/>
+      <c r="Q63" s="154"/>
+      <c r="R63" s="154"/>
+      <c r="S63" s="154"/>
+      <c r="T63" s="154"/>
+      <c r="U63" s="154"/>
+      <c r="V63" s="154"/>
+      <c r="W63" s="154"/>
+      <c r="X63" s="154"/>
+      <c r="Y63" s="154"/>
+      <c r="Z63" s="154"/>
+      <c r="AA63" s="154"/>
+      <c r="AB63" s="154"/>
+      <c r="AC63" s="154"/>
+      <c r="AD63" s="155"/>
+    </row>
+    <row r="64" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -5261,7 +5261,7 @@
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
     </row>
-    <row r="65" spans="1:31" ht="20.25" customHeight="1">
+    <row r="65" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="20" t="s">
         <v>22</v>
@@ -5295,7 +5295,7 @@
       <c r="AC65" s="23"/>
       <c r="AD65" s="5"/>
     </row>
-    <row r="66" spans="1:31" ht="18" customHeight="1">
+    <row r="66" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
@@ -5329,7 +5329,7 @@
       <c r="AC66" s="5"/>
       <c r="AD66" s="45"/>
     </row>
-    <row r="67" spans="1:31" ht="6" customHeight="1">
+    <row r="67" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -5361,7 +5361,7 @@
       <c r="AC67" s="5"/>
       <c r="AD67" s="45"/>
     </row>
-    <row r="68" spans="1:31" ht="18" customHeight="1">
+    <row r="68" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -5396,7 +5396,7 @@
       <c r="AD68" s="45"/>
       <c r="AE68" s="5"/>
     </row>
-    <row r="69" spans="1:31" ht="12" customHeight="1">
+    <row r="69" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
       <c r="B69" s="24"/>
       <c r="C69" s="25"/>
@@ -5427,7 +5427,7 @@
       <c r="AC69" s="26"/>
       <c r="AD69" s="5"/>
     </row>
-    <row r="70" spans="1:31" ht="18" customHeight="1">
+    <row r="70" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="24" t="s">
         <v>33</v>
@@ -5461,7 +5461,7 @@
       <c r="AC70" s="26"/>
       <c r="AD70" s="5"/>
     </row>
-    <row r="71" spans="1:31" ht="18" customHeight="1">
+    <row r="71" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="24"/>
       <c r="C71" s="25"/>
@@ -5495,7 +5495,7 @@
       <c r="AC71" s="5"/>
       <c r="AD71" s="45"/>
     </row>
-    <row r="72" spans="1:31" ht="6" customHeight="1">
+    <row r="72" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -5527,7 +5527,7 @@
       <c r="AC72" s="5"/>
       <c r="AD72" s="45"/>
     </row>
-    <row r="73" spans="1:31" ht="18" customHeight="1">
+    <row r="73" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="24"/>
       <c r="C73" s="25"/>
@@ -5559,73 +5559,73 @@
       <c r="AD73" s="45"/>
       <c r="AE73" s="5"/>
     </row>
-    <row r="74" spans="1:31" ht="14.25" customHeight="1">
+    <row r="74" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="64"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="64"/>
-      <c r="Q74" s="64"/>
-      <c r="R74" s="64"/>
-      <c r="S74" s="64"/>
-      <c r="T74" s="64"/>
-      <c r="U74" s="64"/>
-      <c r="V74" s="64"/>
-      <c r="W74" s="64"/>
-      <c r="X74" s="64"/>
-      <c r="Y74" s="64"/>
-      <c r="Z74" s="64"/>
-      <c r="AA74" s="64"/>
-      <c r="AB74" s="64"/>
-      <c r="AC74" s="65"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="157"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="157"/>
+      <c r="M74" s="157"/>
+      <c r="N74" s="157"/>
+      <c r="O74" s="157"/>
+      <c r="P74" s="157"/>
+      <c r="Q74" s="157"/>
+      <c r="R74" s="157"/>
+      <c r="S74" s="157"/>
+      <c r="T74" s="157"/>
+      <c r="U74" s="157"/>
+      <c r="V74" s="157"/>
+      <c r="W74" s="157"/>
+      <c r="X74" s="157"/>
+      <c r="Y74" s="157"/>
+      <c r="Z74" s="157"/>
+      <c r="AA74" s="157"/>
+      <c r="AB74" s="157"/>
+      <c r="AC74" s="158"/>
       <c r="AD74" s="5"/>
     </row>
-    <row r="75" spans="1:31" ht="18" customHeight="1">
+    <row r="75" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="26"/>
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="64"/>
-      <c r="L75" s="64"/>
-      <c r="M75" s="64"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="64"/>
-      <c r="Q75" s="64"/>
-      <c r="R75" s="64"/>
-      <c r="S75" s="64"/>
-      <c r="T75" s="64"/>
-      <c r="U75" s="64"/>
-      <c r="V75" s="64"/>
-      <c r="W75" s="64"/>
-      <c r="X75" s="64"/>
-      <c r="Y75" s="64"/>
-      <c r="Z75" s="64"/>
-      <c r="AA75" s="64"/>
-      <c r="AB75" s="64"/>
-      <c r="AC75" s="65"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="157"/>
+      <c r="E75" s="157"/>
+      <c r="F75" s="157"/>
+      <c r="G75" s="157"/>
+      <c r="H75" s="157"/>
+      <c r="I75" s="157"/>
+      <c r="J75" s="157"/>
+      <c r="K75" s="157"/>
+      <c r="L75" s="157"/>
+      <c r="M75" s="157"/>
+      <c r="N75" s="157"/>
+      <c r="O75" s="157"/>
+      <c r="P75" s="157"/>
+      <c r="Q75" s="157"/>
+      <c r="R75" s="157"/>
+      <c r="S75" s="157"/>
+      <c r="T75" s="157"/>
+      <c r="U75" s="157"/>
+      <c r="V75" s="157"/>
+      <c r="W75" s="157"/>
+      <c r="X75" s="157"/>
+      <c r="Y75" s="157"/>
+      <c r="Z75" s="157"/>
+      <c r="AA75" s="157"/>
+      <c r="AB75" s="157"/>
+      <c r="AC75" s="158"/>
       <c r="AD75" s="5"/>
     </row>
-    <row r="76" spans="1:31" ht="6" customHeight="1">
+    <row r="76" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="27"/>
       <c r="C76" s="28"/>
@@ -5657,7 +5657,7 @@
       <c r="AC76" s="29"/>
       <c r="AD76" s="5"/>
     </row>
-    <row r="77" spans="1:31" ht="7.5" customHeight="1">
+    <row r="77" spans="1:31" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5689,177 +5689,177 @@
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
     </row>
-    <row r="78" spans="1:31" ht="16.5" customHeight="1">
+    <row r="78" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="16.5" customHeight="1">
+    <row r="79" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="66"/>
-      <c r="L79" s="66"/>
-      <c r="M79" s="66"/>
-      <c r="N79" s="66"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="66"/>
-      <c r="Q79" s="66"/>
-      <c r="R79" s="66"/>
-      <c r="S79" s="66"/>
-      <c r="T79" s="66"/>
-      <c r="U79" s="66"/>
-      <c r="V79" s="66"/>
-      <c r="W79" s="66"/>
-      <c r="X79" s="66"/>
-      <c r="Y79" s="66"/>
-      <c r="Z79" s="66"/>
-      <c r="AA79" s="66"/>
-      <c r="AB79" s="66"/>
-    </row>
-    <row r="80" spans="1:31" ht="27" customHeight="1">
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="90"/>
+      <c r="N79" s="90"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="90"/>
+      <c r="Q79" s="90"/>
+      <c r="R79" s="90"/>
+      <c r="S79" s="90"/>
+      <c r="T79" s="90"/>
+      <c r="U79" s="90"/>
+      <c r="V79" s="90"/>
+      <c r="W79" s="90"/>
+      <c r="X79" s="90"/>
+      <c r="Y79" s="90"/>
+      <c r="Z79" s="90"/>
+      <c r="AA79" s="90"/>
+      <c r="AB79" s="90"/>
+    </row>
+    <row r="80" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
-      <c r="T80" s="59"/>
-      <c r="U80" s="59"/>
-      <c r="V80" s="59"/>
-      <c r="W80" s="59"/>
-      <c r="X80" s="59"/>
-      <c r="Y80" s="59"/>
-      <c r="Z80" s="59"/>
-      <c r="AA80" s="59"/>
-      <c r="AB80" s="59"/>
-      <c r="AC80" s="59"/>
-      <c r="AD80" s="59"/>
-    </row>
-    <row r="81" spans="1:30" ht="16.5" customHeight="1">
-      <c r="B81" s="66" t="s">
+      <c r="C80" s="152"/>
+      <c r="D80" s="152"/>
+      <c r="E80" s="152"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="152"/>
+      <c r="H80" s="152"/>
+      <c r="I80" s="152"/>
+      <c r="J80" s="152"/>
+      <c r="K80" s="152"/>
+      <c r="L80" s="152"/>
+      <c r="M80" s="152"/>
+      <c r="N80" s="152"/>
+      <c r="O80" s="152"/>
+      <c r="P80" s="152"/>
+      <c r="Q80" s="152"/>
+      <c r="R80" s="152"/>
+      <c r="S80" s="152"/>
+      <c r="T80" s="152"/>
+      <c r="U80" s="152"/>
+      <c r="V80" s="152"/>
+      <c r="W80" s="152"/>
+      <c r="X80" s="152"/>
+      <c r="Y80" s="152"/>
+      <c r="Z80" s="152"/>
+      <c r="AA80" s="152"/>
+      <c r="AB80" s="152"/>
+      <c r="AC80" s="152"/>
+      <c r="AD80" s="152"/>
+    </row>
+    <row r="81" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="66"/>
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
-      <c r="S81" s="66"/>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="66"/>
-      <c r="W81" s="66"/>
-      <c r="X81" s="66"/>
-      <c r="Y81" s="66"/>
-      <c r="Z81" s="66"/>
-      <c r="AA81" s="66"/>
-      <c r="AB81" s="66"/>
-      <c r="AC81" s="66"/>
-      <c r="AD81" s="66"/>
-    </row>
-    <row r="82" spans="1:30" ht="42.75" customHeight="1">
-      <c r="B82" s="66" t="s">
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
+      <c r="M81" s="90"/>
+      <c r="N81" s="90"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="90"/>
+      <c r="Q81" s="90"/>
+      <c r="R81" s="90"/>
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="90"/>
+      <c r="V81" s="90"/>
+      <c r="W81" s="90"/>
+      <c r="X81" s="90"/>
+      <c r="Y81" s="90"/>
+      <c r="Z81" s="90"/>
+      <c r="AA81" s="90"/>
+      <c r="AB81" s="90"/>
+      <c r="AC81" s="90"/>
+      <c r="AD81" s="90"/>
+    </row>
+    <row r="82" spans="1:30" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="66"/>
-      <c r="Q82" s="66"/>
-      <c r="R82" s="66"/>
-      <c r="S82" s="66"/>
-      <c r="T82" s="66"/>
-      <c r="U82" s="66"/>
-      <c r="V82" s="66"/>
-      <c r="W82" s="66"/>
-      <c r="X82" s="66"/>
-      <c r="Y82" s="66"/>
-      <c r="Z82" s="66"/>
-      <c r="AA82" s="66"/>
-      <c r="AB82" s="66"/>
-      <c r="AC82" s="66"/>
-      <c r="AD82" s="66"/>
-    </row>
-    <row r="83" spans="1:30" ht="27" customHeight="1">
-      <c r="B83" s="127" t="s">
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="90"/>
+      <c r="J82" s="90"/>
+      <c r="K82" s="90"/>
+      <c r="L82" s="90"/>
+      <c r="M82" s="90"/>
+      <c r="N82" s="90"/>
+      <c r="O82" s="90"/>
+      <c r="P82" s="90"/>
+      <c r="Q82" s="90"/>
+      <c r="R82" s="90"/>
+      <c r="S82" s="90"/>
+      <c r="T82" s="90"/>
+      <c r="U82" s="90"/>
+      <c r="V82" s="90"/>
+      <c r="W82" s="90"/>
+      <c r="X82" s="90"/>
+      <c r="Y82" s="90"/>
+      <c r="Z82" s="90"/>
+      <c r="AA82" s="90"/>
+      <c r="AB82" s="90"/>
+      <c r="AC82" s="90"/>
+      <c r="AD82" s="90"/>
+    </row>
+    <row r="83" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
-      <c r="K83" s="127"/>
-      <c r="L83" s="127"/>
-      <c r="M83" s="127"/>
-      <c r="N83" s="127"/>
-      <c r="O83" s="127"/>
-      <c r="P83" s="127"/>
-      <c r="Q83" s="127"/>
-      <c r="R83" s="127"/>
-      <c r="S83" s="127"/>
-      <c r="T83" s="127"/>
-      <c r="U83" s="127"/>
-      <c r="V83" s="127"/>
-      <c r="W83" s="127"/>
-      <c r="X83" s="127"/>
-      <c r="Y83" s="127"/>
-      <c r="Z83" s="127"/>
-      <c r="AA83" s="127"/>
-      <c r="AB83" s="127"/>
-      <c r="AC83" s="127"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="91"/>
+      <c r="H83" s="91"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="91"/>
+      <c r="M83" s="91"/>
+      <c r="N83" s="91"/>
+      <c r="O83" s="91"/>
+      <c r="P83" s="91"/>
+      <c r="Q83" s="91"/>
+      <c r="R83" s="91"/>
+      <c r="S83" s="91"/>
+      <c r="T83" s="91"/>
+      <c r="U83" s="91"/>
+      <c r="V83" s="91"/>
+      <c r="W83" s="91"/>
+      <c r="X83" s="91"/>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="91"/>
+      <c r="AA83" s="91"/>
+      <c r="AB83" s="91"/>
+      <c r="AC83" s="91"/>
       <c r="AD83" s="44"/>
     </row>
-    <row r="84" spans="1:30" ht="15.75" customHeight="1">
+    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="B84" s="48" t="s">
         <v>42</v>
@@ -5893,7 +5893,7 @@
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
     </row>
-    <row r="85" spans="1:30" ht="16.5" customHeight="1">
+    <row r="85" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12"/>
     </row>
   </sheetData>
@@ -5910,6 +5910,75 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="85">
+    <mergeCell ref="A62:AD62"/>
+    <mergeCell ref="B80:AD80"/>
+    <mergeCell ref="A63:AD63"/>
+    <mergeCell ref="B75:AC75"/>
+    <mergeCell ref="A58:AD58"/>
+    <mergeCell ref="A59:AD59"/>
+    <mergeCell ref="A60:AD60"/>
+    <mergeCell ref="A61:AD61"/>
+    <mergeCell ref="B74:AC74"/>
+    <mergeCell ref="B79:AB79"/>
+    <mergeCell ref="A57:AD57"/>
+    <mergeCell ref="A51:AD51"/>
+    <mergeCell ref="A52:AD52"/>
+    <mergeCell ref="A53:AD53"/>
+    <mergeCell ref="A54:AD54"/>
+    <mergeCell ref="A48:AD48"/>
+    <mergeCell ref="A49:AD49"/>
+    <mergeCell ref="A50:AD50"/>
+    <mergeCell ref="A55:AD55"/>
+    <mergeCell ref="A56:AD56"/>
+    <mergeCell ref="K35:AD35"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="E1:Y2"/>
+    <mergeCell ref="W33:AD33"/>
+    <mergeCell ref="A16:F17"/>
+    <mergeCell ref="M33:T33"/>
+    <mergeCell ref="M32:T32"/>
+    <mergeCell ref="C20:AD20"/>
+    <mergeCell ref="C27:AD27"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C24:AD24"/>
+    <mergeCell ref="C29:AD29"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="P13:V13"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="W32:AD32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="M34:T34"/>
+    <mergeCell ref="W34:AD34"/>
+    <mergeCell ref="W14:AD14"/>
+    <mergeCell ref="G14:Q14"/>
+    <mergeCell ref="G12:AD12"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="A7:AD7"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B82:AD82"/>
+    <mergeCell ref="B81:AD81"/>
+    <mergeCell ref="B83:AC83"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A39:AD39"/>
+    <mergeCell ref="A45:AD45"/>
+    <mergeCell ref="A46:AD46"/>
+    <mergeCell ref="A43:AD43"/>
+    <mergeCell ref="A44:AD44"/>
+    <mergeCell ref="A41:AD41"/>
+    <mergeCell ref="A42:AD42"/>
+    <mergeCell ref="A47:AD47"/>
     <mergeCell ref="Y15:AD15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="A40:AD40"/>
@@ -5926,75 +5995,6 @@
     <mergeCell ref="A21:B29"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:J35"/>
-    <mergeCell ref="B82:AD82"/>
-    <mergeCell ref="B81:AD81"/>
-    <mergeCell ref="B83:AC83"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A39:AD39"/>
-    <mergeCell ref="A45:AD45"/>
-    <mergeCell ref="A46:AD46"/>
-    <mergeCell ref="A43:AD43"/>
-    <mergeCell ref="A44:AD44"/>
-    <mergeCell ref="A41:AD41"/>
-    <mergeCell ref="A42:AD42"/>
-    <mergeCell ref="A47:AD47"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="W14:AD14"/>
-    <mergeCell ref="G14:Q14"/>
-    <mergeCell ref="G12:AD12"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="A7:AD7"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="W32:AD32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="M34:T34"/>
-    <mergeCell ref="W34:AD34"/>
-    <mergeCell ref="K35:AD35"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="E1:Y2"/>
-    <mergeCell ref="W33:AD33"/>
-    <mergeCell ref="A16:F17"/>
-    <mergeCell ref="M33:T33"/>
-    <mergeCell ref="M32:T32"/>
-    <mergeCell ref="C20:AD20"/>
-    <mergeCell ref="C27:AD27"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C24:AD24"/>
-    <mergeCell ref="C29:AD29"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="P13:V13"/>
-    <mergeCell ref="A48:AD48"/>
-    <mergeCell ref="A49:AD49"/>
-    <mergeCell ref="A50:AD50"/>
-    <mergeCell ref="A55:AD55"/>
-    <mergeCell ref="A56:AD56"/>
-    <mergeCell ref="A57:AD57"/>
-    <mergeCell ref="A51:AD51"/>
-    <mergeCell ref="A52:AD52"/>
-    <mergeCell ref="A53:AD53"/>
-    <mergeCell ref="A54:AD54"/>
-    <mergeCell ref="A62:AD62"/>
-    <mergeCell ref="B80:AD80"/>
-    <mergeCell ref="A63:AD63"/>
-    <mergeCell ref="B75:AC75"/>
-    <mergeCell ref="A58:AD58"/>
-    <mergeCell ref="A59:AD59"/>
-    <mergeCell ref="A60:AD60"/>
-    <mergeCell ref="A61:AD61"/>
-    <mergeCell ref="B74:AC74"/>
-    <mergeCell ref="B79:AB79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
